--- a/data/trans_bre/P3A_R1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R1-Estudios-trans_bre.xlsx
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,32</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,56</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,23</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,83%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,95%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,33%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,04%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,57; -7,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,11; -9,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,91; -9,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,87; -4,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,94; -45,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,68; -51,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,65; -50,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,41; -32,22</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,22</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,11</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,73</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,37</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,05%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,68%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,61%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,84; -6,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,65; -9,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,74; -11,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,23; 2,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,36; -33,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,57; -34,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,1; -33,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,74; 8,36</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,65</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,87</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,93</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,46%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,45%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,39%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,26%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,03; 3,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,55; -2,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,99; -4,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,35; -2,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,67; 12,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,9; -6,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,05; -11,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,14; -6,15</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,92</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,62</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,84</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,84</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,36%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,64; -7,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,5; -10,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,0; -11,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,4; -1,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,97; -34,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,81; -40,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,6; -37,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,78; -7,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P3A_R1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R1-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,57; -7,02</t>
+          <t>-12,57; -6,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,11; -9,58</t>
+          <t>-15,32; -9,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,91; -9,85</t>
+          <t>-17,25; -10,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,87; -4,62</t>
+          <t>-11,9; -4,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-65,94; -45,83</t>
+          <t>-66,48; -45,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-68,68; -51,95</t>
+          <t>-69,52; -50,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-70,65; -50,83</t>
+          <t>-70,79; -51,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-60,41; -32,22</t>
+          <t>-59,42; -31,34</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,84; -6,69</t>
+          <t>-11,94; -6,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,65; -9,43</t>
+          <t>-15,18; -9,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,74; -11,03</t>
+          <t>-16,81; -11,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 2,64</t>
+          <t>-11,21; 3,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,36; -33,25</t>
+          <t>-52,41; -33,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-48,57; -34,27</t>
+          <t>-50,24; -34,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-47,1; -33,73</t>
+          <t>-47,24; -34,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-39,74; 8,36</t>
+          <t>-39,61; 11,54</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 3,29</t>
+          <t>-7,84; 3,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,55; -2,54</t>
+          <t>-14,89; -2,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,99; -4,46</t>
+          <t>-15,42; -3,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,35; -2,0</t>
+          <t>-11,68; -1,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-26,67; 12,56</t>
+          <t>-25,36; 15,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-37,9; -6,97</t>
+          <t>-37,31; -5,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-35,05; -11,0</t>
+          <t>-34,08; -8,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,14; -6,15</t>
+          <t>-28,68; -3,14</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,64; -7,02</t>
+          <t>-10,76; -7,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,5; -10,7</t>
+          <t>-14,58; -10,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,0; -11,84</t>
+          <t>-15,81; -11,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,4; -1,12</t>
+          <t>-10,4; -0,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-48,97; -34,99</t>
+          <t>-49,24; -35,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-50,81; -40,27</t>
+          <t>-51,41; -40,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,6; -37,8</t>
+          <t>-47,29; -37,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-36,78; -7,29</t>
+          <t>-36,88; -6,77</t>
         </is>
       </c>
     </row>
